--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tg-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tg-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05081533333333333</v>
+        <v>0.04939733333333333</v>
       </c>
       <c r="H2">
-        <v>0.152446</v>
+        <v>0.148192</v>
       </c>
       <c r="I2">
-        <v>0.01204428526135046</v>
+        <v>0.01161064749150641</v>
       </c>
       <c r="J2">
-        <v>0.01204428526135047</v>
+        <v>0.01161064749150642</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N2">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0005332391695555555</v>
+        <v>0.005435089791999999</v>
       </c>
       <c r="R2">
-        <v>0.004799152526000001</v>
+        <v>0.048915808128</v>
       </c>
       <c r="S2">
-        <v>0.01204428526135046</v>
+        <v>0.01161064749150641</v>
       </c>
       <c r="T2">
-        <v>0.01204428526135047</v>
+        <v>0.01161064749150642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>0.9223140000000001</v>
       </c>
       <c r="I3">
-        <v>0.07286916623943687</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="J3">
-        <v>0.07286916623943689</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N3">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.003226151892666667</v>
+        <v>0.03382678826400001</v>
       </c>
       <c r="R3">
-        <v>0.029035367034</v>
+        <v>0.304441094376</v>
       </c>
       <c r="S3">
-        <v>0.07286916623943687</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="T3">
-        <v>0.07286916623943689</v>
+        <v>0.07226208385392767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,34 +661,34 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1358973333333333</v>
+        <v>0.230218</v>
       </c>
       <c r="H4">
-        <v>0.4076920000000001</v>
+        <v>0.690654</v>
       </c>
       <c r="I4">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="J4">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N4">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.001426061316888889</v>
+        <v>0.025330426104</v>
       </c>
       <c r="R4">
-        <v>0.012834551852</v>
+        <v>0.227973834936</v>
       </c>
       <c r="S4">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="T4">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,34 +723,34 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.02954266666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.088628</v>
+      </c>
+      <c r="I5">
+        <v>0.006943886754192065</v>
+      </c>
+      <c r="J5">
+        <v>0.006943886754192066</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.3427856666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.028357</v>
-      </c>
-      <c r="I5">
-        <v>0.0812472945076065</v>
-      </c>
-      <c r="J5">
-        <v>0.0812472945076065</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N5">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.003597078524111111</v>
+        <v>0.003250520528</v>
       </c>
       <c r="R5">
-        <v>0.032373706717</v>
+        <v>0.029254684752</v>
       </c>
       <c r="S5">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192065</v>
       </c>
       <c r="T5">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.250474666666667</v>
+        <v>3.583446</v>
       </c>
       <c r="H6">
-        <v>9.751424</v>
+        <v>10.750338</v>
       </c>
       <c r="I6">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="J6">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N6">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.03410939766044445</v>
+        <v>0.394279396488</v>
       </c>
       <c r="R6">
-        <v>0.306984578944</v>
+        <v>3.548514568392</v>
       </c>
       <c r="S6">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="T6">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.13163</v>
+        <v>0.05444366666666667</v>
       </c>
       <c r="H7">
-        <v>0.39489</v>
+        <v>0.163331</v>
       </c>
       <c r="I7">
-        <v>0.03119903314521001</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="J7">
-        <v>0.03119903314521002</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N7">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.001381281343333333</v>
+        <v>0.005990327756000001</v>
       </c>
       <c r="R7">
-        <v>0.01243153209</v>
+        <v>0.053912949804</v>
       </c>
       <c r="S7">
-        <v>0.03119903314521001</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="T7">
-        <v>0.03119903314521002</v>
+        <v>0.01279676814831593</v>
       </c>
     </row>
   </sheetData>
